--- a/1625.xlsx
+++ b/1625.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\1625-Managing-a-Successful-Computing-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403738C-8388-4217-ABF7-42F9BC44CCF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960D96BC-C79C-4290-B785-A50A83FA8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2508B98A-AB84-4A88-8517-7F6364144A5F}"/>
   </bookViews>
@@ -1120,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FC6040D-079C-4EC9-9305-61D4B724B1C8}">
   <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
